--- a/Config/基础配置/GenEnumConfig.xlsx
+++ b/Config/基础配置/GenEnumConfig.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t xml:space="preserve">##</t>
   </si>
@@ -49,22 +49,10 @@
     <t xml:space="preserve">界面枚举</t>
   </si>
   <si>
-    <t xml:space="preserve">PatchPanel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加载流程界面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BubbleDialogChoosePanel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对话选择界面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FightUI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">战斗界面</t>
+    <t xml:space="preserve">MainGamePanel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主游戏界面</t>
   </si>
 </sst>
 </file>
@@ -74,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -95,6 +83,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="NSimSun"/>
       <family val="0"/>
     </font>
     <font>
@@ -146,7 +140,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -160,6 +154,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -180,10 +178,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -245,36 +243,14 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Config/基础配置/GenEnumConfig.xlsx
+++ b/Config/基础配置/GenEnumConfig.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="14865" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="UI枚举" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>##</t>
   </si>
@@ -62,6 +49,18 @@
     <t>界面枚举</t>
   </si>
   <si>
+    <t>StartGamePanel</t>
+  </si>
+  <si>
+    <t>开始游戏界面</t>
+  </si>
+  <si>
+    <t>LevelLoadingPanel</t>
+  </si>
+  <si>
+    <t>关卡加载界面</t>
+  </si>
+  <si>
     <t>MainGamePanel</t>
   </si>
   <si>
@@ -71,24 +70,24 @@
     <t>RoomPanel</t>
   </si>
   <si>
-    <t>游戏房间界面</t>
+    <t>房间界面</t>
   </si>
   <si>
     <t>FightPanel</t>
   </si>
   <si>
-    <t>游戏战斗界面</t>
+    <t>战斗界面</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -109,6 +108,88 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -117,6 +198,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -126,16 +215,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,106 +252,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,25 +268,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,97 +388,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,55 +430,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,30 +459,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,17 +471,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,17 +501,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,143 +535,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -719,52 +718,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -961,7 +960,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -970,7 +969,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1249,13 +1248,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
@@ -1360,11 +1359,33 @@
         <v>16</v>
       </c>
     </row>
+    <row r="8" spans="6:8">
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8">
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:H1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>

--- a/Config/基础配置/GenEnumConfig.xlsx
+++ b/Config/基础配置/GenEnumConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14865" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="14745" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="UI枚举" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>##</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>主游戏界面</t>
+  </si>
+  <si>
+    <t>GameEndPanel</t>
+  </si>
+  <si>
+    <t>游戏结束界面</t>
   </si>
   <si>
     <t>RoomPanel</t>
@@ -84,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -103,128 +109,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,6 +175,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -244,9 +205,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,187 +274,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +465,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,217 +565,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,10 +1254,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1359,14 +1365,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="6:8">
-      <c r="F8" s="1" t="s">
+    <row r="7" spans="6:8">
+      <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1379,6 +1385,17 @@
       </c>
       <c r="H9" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8">
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Config/基础配置/GenEnumConfig.xlsx
+++ b/Config/基础配置/GenEnumConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>##</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>战斗界面</t>
+  </si>
+  <si>
+    <t>Test_CheckAudioPanel</t>
+  </si>
+  <si>
+    <t>测试音频节拍界面</t>
   </si>
 </sst>
 </file>
@@ -91,9 +97,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -109,17 +115,149 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,138 +270,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -274,187 +280,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,26 +476,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,8 +486,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +508,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -529,24 +533,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,143 +551,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1254,10 +1260,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1398,6 +1404,17 @@
         <v>22</v>
       </c>
     </row>
+    <row r="12" spans="6:8">
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:H1"/>

--- a/Config/基础配置/GenEnumConfig.xlsx
+++ b/Config/基础配置/GenEnumConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>##</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>战斗界面</t>
+  </si>
+  <si>
+    <t>GameSettingPanel</t>
+  </si>
+  <si>
+    <t>游戏设置界面</t>
   </si>
   <si>
     <t>Test_CheckAudioPanel</t>
@@ -96,8 +102,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -115,48 +121,64 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -164,6 +186,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -173,48 +217,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,14 +240,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,32 +256,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -280,19 +286,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,163 +424,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,18 +482,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +536,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -537,37 +569,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,138 +582,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1260,10 +1266,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1415,6 +1421,17 @@
         <v>24</v>
       </c>
     </row>
+    <row r="17" spans="6:8">
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:H1"/>
